--- a/cart.xlsx
+++ b/cart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>Name:</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>//1 for shipping, 2 for billing, 3 for both</t>
+  </si>
+  <si>
+    <t>SELECT address_id WHERE address_type = 1 || 3</t>
+  </si>
+  <si>
+    <t>address_id</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,15 +243,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R40"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +768,17 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -753,15 +790,6 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -788,27 +816,15 @@
       <c r="I13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -830,14 +846,26 @@
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -857,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -882,7 +910,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -903,7 +931,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -914,7 +942,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -934,7 +962,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="K19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -966,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -989,15 +1017,15 @@
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="K21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -1009,15 +1037,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="K22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -1029,15 +1057,15 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="K23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
@@ -1049,15 +1077,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="K24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -1069,15 +1097,15 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="K25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -1089,6 +1117,15 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -1100,38 +1137,17 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="K27" s="1" t="s">
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -1144,14 +1160,26 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="K29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -1176,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1196,7 +1224,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1215,82 +1243,87 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="2" t="s">
+      <c r="K32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
       <c r="R35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
       <c r="K36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1299,9 +1332,9 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1310,9 +1343,9 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K40" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1320,6 +1353,28 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
